--- a/Project Documentatie/logboek/logboek_Youri.xlsx
+++ b/Project Documentatie/logboek/logboek_Youri.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youri\Documents\Radius\PO\DeGokkers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Git\DeGokkers\Project Documentatie\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -47,78 +47,6 @@
     <t>Totaal aantal uren gewerkt</t>
   </si>
   <si>
-    <t>29.11.2016</t>
-  </si>
-  <si>
-    <t>30.11.2016</t>
-  </si>
-  <si>
-    <t>1.12.2016</t>
-  </si>
-  <si>
-    <t>2.12.2016</t>
-  </si>
-  <si>
-    <t>3.12.2016</t>
-  </si>
-  <si>
-    <t>4.12.2016</t>
-  </si>
-  <si>
-    <t>5.12.2016</t>
-  </si>
-  <si>
-    <t>6.12.2016</t>
-  </si>
-  <si>
-    <t>7.12.2016</t>
-  </si>
-  <si>
-    <t>8.12.2016</t>
-  </si>
-  <si>
-    <t>9.12.2016</t>
-  </si>
-  <si>
-    <t>10.12.2016</t>
-  </si>
-  <si>
-    <t>11.12.2016</t>
-  </si>
-  <si>
-    <t>12.12.2016</t>
-  </si>
-  <si>
-    <t>13.12.2016</t>
-  </si>
-  <si>
-    <t>14.12.2016</t>
-  </si>
-  <si>
-    <t>15.12.2016</t>
-  </si>
-  <si>
-    <t>16.12.2016</t>
-  </si>
-  <si>
-    <t>17.12.2016</t>
-  </si>
-  <si>
-    <t>18.12.2016</t>
-  </si>
-  <si>
-    <t>19.12.2016</t>
-  </si>
-  <si>
-    <t>20.12.2016</t>
-  </si>
-  <si>
-    <t>21.12.2016</t>
-  </si>
-  <si>
-    <t>22.12.2016</t>
-  </si>
-  <si>
     <t>planning, contract, project documentatie</t>
   </si>
   <si>
@@ -141,6 +69,39 @@
   </si>
   <si>
     <t>extra boost</t>
+  </si>
+  <si>
+    <t>13/3/2017</t>
+  </si>
+  <si>
+    <t>begonnen website</t>
+  </si>
+  <si>
+    <t>14/3/2017</t>
+  </si>
+  <si>
+    <t>verder aan website</t>
+  </si>
+  <si>
+    <t>20/3/2017</t>
+  </si>
+  <si>
+    <t>21/3/2017</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>27/32017</t>
+  </si>
+  <si>
+    <t>28/3/2017</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>alles afronden</t>
   </si>
 </sst>
 </file>
@@ -552,7 +513,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -622,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -634,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -645,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -656,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -667,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -678,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -689,201 +650,155 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
+      <c r="C14">
+        <f>-C17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
+      <c r="A16" s="2">
+        <v>42798</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -901,7 +816,7 @@
       </c>
       <c r="B36" s="3">
         <f>SUM(B2:B33)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -912,7 +827,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>SUM(B36:C36)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
